--- a/lsj7087/4step_while/CheckListForm_hwijun.xlsx
+++ b/lsj7087/4step_while/CheckListForm_hwijun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dongguk0-my.sharepoint.com/personal/lsj7087_dongguk_edu/Documents/바탕 화면/4step_while/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsj70\OneDrive - dongguk.edu\바탕 화면\알고리즘 스터디\작업용\4step_while\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{48430C24-53D2-4546-B77A-CD885785CE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{758AD54D-77A6-4335-9C81-BB6335EE7C2B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C8C22A-47FB-4E6A-AE91-9EE236B735B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3730" yWindow="2060" windowWidth="21600" windowHeight="12750" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21580" windowHeight="12750" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -644,6 +644,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,87 +733,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1054,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA290B9-D938-4FB9-A2F0-C9496544FB19}">
   <dimension ref="B1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="101" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1070,11 +1067,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1090,10 +1087,10 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="1">
         <v>10952</v>
       </c>
@@ -1105,10 +1102,10 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
@@ -1120,96 +1117,96 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="38" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="24"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="24"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="24"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="25"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="24"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="25"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="2:6" ht="7.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="1">
         <v>10951</v>
       </c>
@@ -1221,10 +1218,10 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="38"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="10" t="s">
         <v>20</v>
       </c>
@@ -1236,96 +1233,96 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="14"/>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="47"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="47"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="32" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" s="24"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="25"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="32" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="36"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="1">
         <v>1110</v>
       </c>
@@ -1337,10 +1334,10 @@
       </c>
     </row>
     <row r="29" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="38"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="10" t="s">
         <v>21</v>
       </c>
@@ -1352,166 +1349,166 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="38" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="14"/>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B32" s="24"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B33" s="24"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B34" s="24"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
     </row>
     <row r="35" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="25"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="32"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B37" s="24"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="25"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
       <c r="D54" s="17"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
     </row>
     <row r="55" spans="2:6" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B56" s="22"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="15"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B57" s="19"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="15"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B58" s="19"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="15"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B59" s="19"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="15"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B60" s="19"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="15"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B61" s="19"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="15"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B62" s="19"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="15"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B63" s="19"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="15"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B64" s="18"/>
@@ -1521,81 +1518,81 @@
       <c r="F64" s="18"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
       <c r="D66" s="17"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
     </row>
     <row r="67" spans="2:6" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B68" s="22"/>
+      <c r="B68" s="48"/>
       <c r="C68" s="15"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B69" s="19"/>
+      <c r="B69" s="45"/>
       <c r="C69" s="15"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B70" s="19"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="15"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B71" s="19"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="15"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B72" s="19"/>
+      <c r="B72" s="45"/>
       <c r="C72" s="15"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B73" s="19"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="15"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B74" s="19"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="15"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B75" s="19"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="15"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B76" s="18"/>
@@ -1605,81 +1602,81 @@
       <c r="F76" s="18"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
       <c r="F77" s="16"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
       <c r="D78" s="17"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
     </row>
     <row r="79" spans="2:6" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B80" s="22"/>
+      <c r="B80" s="48"/>
       <c r="C80" s="15"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B81" s="19"/>
+      <c r="B81" s="45"/>
       <c r="C81" s="15"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B82" s="19"/>
+      <c r="B82" s="45"/>
       <c r="C82" s="15"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B83" s="19"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="15"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B84" s="19"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="15"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B85" s="19"/>
+      <c r="B85" s="45"/>
       <c r="C85" s="15"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B86" s="19"/>
+      <c r="B86" s="45"/>
       <c r="C86" s="15"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B87" s="19"/>
+      <c r="B87" s="45"/>
       <c r="C87" s="15"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B88" s="18"/>
@@ -1689,81 +1686,81 @@
       <c r="F88" s="18"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
       <c r="F89" s="16"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
       <c r="D90" s="17"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
     </row>
     <row r="91" spans="2:6" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="47"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B92" s="22"/>
+      <c r="B92" s="48"/>
       <c r="C92" s="15"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B93" s="19"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="15"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B94" s="19"/>
+      <c r="B94" s="45"/>
       <c r="C94" s="15"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="46"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B95" s="19"/>
+      <c r="B95" s="45"/>
       <c r="C95" s="15"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B96" s="19"/>
+      <c r="B96" s="45"/>
       <c r="C96" s="15"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="46"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B97" s="19"/>
+      <c r="B97" s="45"/>
       <c r="C97" s="15"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="46"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B98" s="19"/>
+      <c r="B98" s="45"/>
       <c r="C98" s="15"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B99" s="19"/>
+      <c r="B99" s="45"/>
       <c r="C99" s="15"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
+      <c r="D99" s="46"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B100" s="18"/>
@@ -1773,81 +1770,81 @@
       <c r="F100" s="18"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
       <c r="F101" s="16"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="45"/>
       <c r="D102" s="17"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
     </row>
     <row r="103" spans="2:6" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="47"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B104" s="22"/>
+      <c r="B104" s="48"/>
       <c r="C104" s="15"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B105" s="19"/>
+      <c r="B105" s="45"/>
       <c r="C105" s="15"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="46"/>
+      <c r="F105" s="46"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B106" s="19"/>
+      <c r="B106" s="45"/>
       <c r="C106" s="15"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="46"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B107" s="19"/>
+      <c r="B107" s="45"/>
       <c r="C107" s="15"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="46"/>
+      <c r="F107" s="46"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B108" s="19"/>
+      <c r="B108" s="45"/>
       <c r="C108" s="15"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="46"/>
+      <c r="F108" s="46"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B109" s="19"/>
+      <c r="B109" s="45"/>
       <c r="C109" s="15"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="46"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B110" s="19"/>
+      <c r="B110" s="45"/>
       <c r="C110" s="15"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="46"/>
+      <c r="F110" s="46"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B111" s="19"/>
+      <c r="B111" s="45"/>
       <c r="C111" s="15"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="46"/>
+      <c r="F111" s="46"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B112" s="18"/>
@@ -1857,111 +1854,161 @@
       <c r="F112" s="18"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="45"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
       <c r="F113" s="16"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
+      <c r="B114" s="45"/>
+      <c r="C114" s="45"/>
       <c r="D114" s="17"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
     </row>
     <row r="115" spans="2:6" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="47"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B116" s="22"/>
+      <c r="B116" s="48"/>
       <c r="C116" s="15"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
+      <c r="D116" s="46"/>
+      <c r="E116" s="46"/>
+      <c r="F116" s="46"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B117" s="19"/>
+      <c r="B117" s="45"/>
       <c r="C117" s="15"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20"/>
+      <c r="D117" s="46"/>
+      <c r="E117" s="46"/>
+      <c r="F117" s="46"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B118" s="19"/>
+      <c r="B118" s="45"/>
       <c r="C118" s="15"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="20"/>
+      <c r="D118" s="46"/>
+      <c r="E118" s="46"/>
+      <c r="F118" s="46"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B119" s="19"/>
+      <c r="B119" s="45"/>
       <c r="C119" s="15"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20"/>
+      <c r="D119" s="46"/>
+      <c r="E119" s="46"/>
+      <c r="F119" s="46"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B120" s="19"/>
+      <c r="B120" s="45"/>
       <c r="C120" s="15"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="20"/>
+      <c r="D120" s="46"/>
+      <c r="E120" s="46"/>
+      <c r="F120" s="46"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B121" s="19"/>
+      <c r="B121" s="45"/>
       <c r="C121" s="15"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="46"/>
+      <c r="F121" s="46"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B122" s="19"/>
+      <c r="B122" s="45"/>
       <c r="C122" s="15"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20"/>
+      <c r="D122" s="46"/>
+      <c r="E122" s="46"/>
+      <c r="F122" s="46"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B123" s="19"/>
+      <c r="B123" s="45"/>
       <c r="C123" s="15"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20"/>
+      <c r="D123" s="46"/>
+      <c r="E123" s="46"/>
+      <c r="F123" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="D36:F36"/>
@@ -1976,83 +2023,33 @@
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
